--- a/bulletin/macroeconomics/static/macroeconomics/tables/government_budget_expenditure_deficit.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/government_budget_expenditure_deficit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5627EFAE-9E1A-4B34-A353-4467A8F029C5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AAC2D7-7BAA-46D0-A957-36A5A3443949}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Показатели</t>
   </si>
@@ -88,18 +88,9 @@
     <t>Погашение бюджетных кредитов</t>
   </si>
   <si>
-    <t>Активами</t>
-  </si>
-  <si>
     <t>Приобретение финансовых активов</t>
   </si>
   <si>
-    <t>Поступления от продажи</t>
-  </si>
-  <si>
-    <t>финансовых активов государства</t>
-  </si>
-  <si>
     <t xml:space="preserve">V. Дефицит (профицит) </t>
   </si>
   <si>
@@ -115,7 +106,10 @@
     <t>III. Чистое бюджетное кредитование</t>
   </si>
   <si>
-    <t>IV. Сальдо по операциям с финансовыми</t>
+    <t>IV. Сальдо по операциям с финансовыми aктивами</t>
+  </si>
+  <si>
+    <t>Поступления от продажи финансовых активов государства</t>
   </si>
 </sst>
 </file>
@@ -151,9 +145,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -434,32 +431,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I28"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="2">
         <v>2020</v>
       </c>
-      <c r="D1">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2">
         <v>2021</v>
       </c>
-      <c r="F1">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2">
         <v>2022</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -485,9 +489,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <v>16725097</v>
@@ -514,7 +518,7 @@
         <v>127.1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -543,7 +547,7 @@
         <v>140.80000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -572,7 +576,7 @@
         <v>104.9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -601,7 +605,7 @@
         <v>120.8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -630,7 +634,7 @@
         <v>132.4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -659,7 +663,7 @@
         <v>107.9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -688,7 +692,7 @@
         <v>119.8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -717,7 +721,7 @@
         <v>130.1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -746,7 +750,7 @@
         <v>127.2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -775,7 +779,7 @@
         <v>194.9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -804,7 +808,7 @@
         <v>118.1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -833,7 +837,7 @@
         <v>130.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -862,7 +866,7 @@
         <v>144.30000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -891,7 +895,7 @@
         <v>192.6</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -920,7 +924,7 @@
         <v>139.9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -940,9 +944,9 @@
         <v>97.7</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1">
         <v>261981</v>
@@ -969,7 +973,7 @@
         <v>97.7</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -998,7 +1002,7 @@
         <v>102.6</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1027,9 +1031,9 @@
         <v>167.2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1">
         <v>340263</v>
@@ -1047,112 +1051,108 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="1">
+        <v>343891</v>
+      </c>
+      <c r="C23">
+        <v>136.5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>165709</v>
+      </c>
+      <c r="E23">
+        <v>48.2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>293189</v>
+      </c>
+      <c r="G23">
+        <v>176.9</v>
+      </c>
+      <c r="H23" s="1">
+        <v>66591</v>
+      </c>
+      <c r="I23">
+        <v>117.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3628</v>
+      </c>
+      <c r="C24">
+        <v>54.2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2698</v>
+      </c>
+      <c r="E24">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1188</v>
+      </c>
+      <c r="G24">
+        <v>44</v>
+      </c>
+      <c r="H24">
+        <v>532</v>
+      </c>
+      <c r="I24">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>343891</v>
-      </c>
-      <c r="C24">
-        <v>136.5</v>
-      </c>
-      <c r="D24" s="1">
-        <v>165709</v>
-      </c>
-      <c r="E24">
-        <v>48.2</v>
-      </c>
-      <c r="F24" s="1">
-        <v>293189</v>
-      </c>
-      <c r="G24">
-        <v>176.9</v>
-      </c>
-      <c r="H24" s="1">
-        <v>66591</v>
-      </c>
-      <c r="I24">
-        <v>117.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="B25" s="1">
+        <v>-2806150</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-2534806</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-2169125</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-531926</v>
+      </c>
+      <c r="I25">
+        <v>249.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
-        <v>3628</v>
-      </c>
-      <c r="C25">
-        <v>54.2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2698</v>
-      </c>
-      <c r="E25">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1188</v>
-      </c>
-      <c r="G25">
-        <v>44</v>
-      </c>
-      <c r="H25">
-        <v>532</v>
-      </c>
-      <c r="I25">
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="B26">
+        <v>-4</v>
+      </c>
+      <c r="D26">
+        <v>-3</v>
+      </c>
+      <c r="F26">
+        <v>-2.1</v>
+      </c>
+      <c r="H26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>-2806150</v>
-      </c>
-      <c r="D27" s="1">
-        <v>-2534806</v>
-      </c>
-      <c r="F27" s="1">
-        <v>-2169125</v>
-      </c>
-      <c r="H27" s="1">
-        <v>-531926</v>
-      </c>
-      <c r="I27">
-        <v>249.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>-4</v>
-      </c>
-      <c r="D28">
-        <v>-3</v>
-      </c>
-      <c r="F28">
-        <v>-2.1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
